--- a/data/Favorites_WEAP.xlsx
+++ b/data/Favorites_WEAP.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="7" t="str">
-        <f t="shared" ref="D3:D66" si="0">CONCATENATE(B3,C3)</f>
+        <f t="shared" ref="D3" si="0">CONCATENATE(B3,C3)</f>
         <v>WEAP_results\Streamflow_gauges</v>
       </c>
       <c r="E3" s="4" t="s">
